--- a/Zad7a.xlsx
+++ b/Zad7a.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDIA\semestr4\Bazy danych\cw7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D2A422A-EF09-42D5-86C0-27E8B14CDFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B57CE-4763-4249-A1AC-DEFAD1A6E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A5E36657-323E-498A-9C46-0DB22B4E583C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5E36657-323E-498A-9C46-0DB22B4E583C}"/>
   </bookViews>
   <sheets>
     <sheet name="Zad7a.1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="171">
   <si>
     <t>Znormalizuj poniższą tabelę:</t>
   </si>
@@ -585,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +614,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -666,38 +672,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1086,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29952834-9BFF-49CE-8108-1EC0EAD3B317}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,6 +1573,8 @@
       <c r="A21" t="s">
         <v>66</v>
       </c>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -1591,12 +1604,8 @@
       <c r="K22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="M22" s="32"/>
+      <c r="N22" s="33"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1626,12 +1635,8 @@
       <c r="K23" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="M23" s="24"/>
+      <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -1661,12 +1666,8 @@
       <c r="K24" s="15">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="M24" s="28"/>
+      <c r="N24" s="35"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -1696,12 +1697,8 @@
       <c r="K25" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="M25" s="24"/>
+      <c r="N25" s="34"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -1970,10 +1967,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P35" s="13" t="s">
         <v>79</v>
@@ -2019,12 +2016,8 @@
       <c r="K36" s="15">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N36" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="M36" s="28"/>
+      <c r="N36" s="35"/>
       <c r="P36" s="26" t="s">
         <v>80</v>
       </c>
@@ -2069,12 +2062,8 @@
       <c r="K37" s="13">
         <v>0.375</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="M37" s="24"/>
+      <c r="N37" s="34"/>
       <c r="P37" s="13" t="s">
         <v>81</v>
       </c>
@@ -2119,12 +2108,8 @@
       <c r="K38" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N38" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="M38" s="28"/>
+      <c r="N38" s="35"/>
       <c r="P38" s="26" t="s">
         <v>82</v>
       </c>
@@ -2169,12 +2154,8 @@
       <c r="K39" s="13">
         <v>0.625</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N39" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="M39" s="24"/>
+      <c r="N39" s="34"/>
       <c r="P39" s="13" t="s">
         <v>83</v>
       </c>
@@ -2206,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199BB067-1277-452E-ACEC-D6693FE49CBD}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>

--- a/Zad7a.xlsx
+++ b/Zad7a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUDIA\semestr4\Bazy danych\cw7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B57CE-4763-4249-A1AC-DEFAD1A6E92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E37F35C-BE7C-4793-BEB2-6E8148BA9FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5E36657-323E-498A-9C46-0DB22B4E583C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="171">
   <si>
     <t>Znormalizuj poniższą tabelę:</t>
   </si>
@@ -585,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,14 +616,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -668,11 +662,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -705,10 +769,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1097,7 +1174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29952834-9BFF-49CE-8108-1EC0EAD3B317}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
       <selection activeCell="M36" sqref="M36:N39"/>
     </sheetView>
   </sheetViews>
@@ -1604,8 +1681,12 @@
       <c r="K22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M22" s="32"/>
-      <c r="N22" s="33"/>
+      <c r="M22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
@@ -1635,8 +1716,12 @@
       <c r="K23" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M23" s="24"/>
-      <c r="N23" s="34"/>
+      <c r="M23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
@@ -1666,8 +1751,12 @@
       <c r="K24" s="15">
         <v>0.54166666666666663</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="35"/>
+      <c r="M24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
@@ -1697,8 +1786,12 @@
       <c r="K25" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M25" s="24"/>
-      <c r="N25" s="34"/>
+      <c r="M25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -1966,10 +2059,10 @@
       <c r="K35" s="13">
         <v>0.41666666666666669</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="N35" s="33" t="s">
         <v>40</v>
       </c>
       <c r="P35" s="13" t="s">
@@ -2016,8 +2109,8 @@
       <c r="K36" s="15">
         <v>0.70833333333333337</v>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="38"/>
       <c r="P36" s="26" t="s">
         <v>80</v>
       </c>
@@ -2062,8 +2155,8 @@
       <c r="K37" s="13">
         <v>0.375</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="34"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="36"/>
       <c r="P37" s="13" t="s">
         <v>81</v>
       </c>
@@ -2108,8 +2201,8 @@
       <c r="K38" s="15">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="34"/>
       <c r="P38" s="26" t="s">
         <v>82</v>
       </c>
@@ -2154,8 +2247,8 @@
       <c r="K39" s="13">
         <v>0.625</v>
       </c>
-      <c r="M39" s="24"/>
-      <c r="N39" s="34"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="36"/>
       <c r="P39" s="13" t="s">
         <v>83</v>
       </c>
